--- a/StickerPacks/apps_config/apps.xlsx
+++ b/StickerPacks/apps_config/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31120" windowHeight="13160"/>
+    <workbookView windowWidth="31100" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="apps" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>app_name</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>FunnyDog</t>
-  </si>
-  <si>
-    <t>funnydog</t>
-  </si>
-  <si>
-    <t>Funny Dog</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1215,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1270,22 +1261,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="4:4">
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/StickerPacks/apps_config/apps.xlsx
+++ b/StickerPacks/apps_config/apps.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31100" windowHeight="13160"/>
+    <workbookView windowWidth="31120" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="apps" sheetId="1" r:id="rId1"/>
@@ -952,6 +952,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,13 +1219,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.1538461538462" customWidth="1"/>
     <col min="2" max="2" width="9.92307692307692" customWidth="1"/>
@@ -1261,9 +1268,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
-      <c r="D3" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/StickerPacks/apps_config/apps.xlsx
+++ b/StickerPacks/apps_config/apps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31120" windowHeight="13160"/>
+    <workbookView windowWidth="31180" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="apps" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>app_name</t>
   </si>
@@ -47,13 +47,16 @@
     <t>FunnyCat</t>
   </si>
   <si>
-    <t>funnycat</t>
+    <t>catwoman</t>
   </si>
   <si>
     <t>Funny Cat</t>
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>funnycat</t>
   </si>
 </sst>
 </file>
@@ -952,13 +955,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1222,7 +1218,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1265,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
